--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_13.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_13.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_9</t>
+          <t>model_1_13_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998451980263475</v>
+        <v>0.9362407899176063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8295551271469228</v>
+        <v>0.7412302257345161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8224377769389313</v>
+        <v>0.6604307500571436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99950527961152</v>
+        <v>0.9575680123894627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006443673480507905</v>
+        <v>0.2653994141369291</v>
       </c>
       <c r="G2" t="n">
-        <v>1.139765649595002</v>
+        <v>1.73039467203854</v>
       </c>
       <c r="H2" t="n">
-        <v>0.635129776240199</v>
+        <v>1.214619517689206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001837194381022357</v>
+        <v>0.2672839343911577</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05945407143467307</v>
+        <v>1.415610024605032</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02538439181959636</v>
+        <v>0.5151693062837974</v>
       </c>
       <c r="L2" t="n">
-        <v>1.009907326313758</v>
+        <v>0.9131789479729107</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02578417061567265</v>
+        <v>0.5232827078773943</v>
       </c>
       <c r="N2" t="n">
-        <v>144.694483156515</v>
+        <v>36.65303872911695</v>
       </c>
       <c r="O2" t="n">
-        <v>286.0296556997314</v>
+        <v>73.61762231734276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_8</t>
+          <t>model_1_13_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998358174150053</v>
+        <v>0.9362376921951729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8295178403321531</v>
+        <v>0.7412123756033678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8222430727117561</v>
+        <v>0.660414276910485</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999479616833456</v>
+        <v>0.9575031053018631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006834143931957934</v>
+        <v>0.2654123084892572</v>
       </c>
       <c r="G3" t="n">
-        <v>1.140014986697056</v>
+        <v>1.730514035947721</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6358262219712046</v>
+        <v>1.214678441179636</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001932495712357558</v>
+        <v>0.2676927915463469</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06123157640022688</v>
+        <v>1.415935255555884</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02614219564603925</v>
+        <v>0.5151818208062637</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010507685439663</v>
+        <v>0.9131747297976823</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02655390909485611</v>
+        <v>0.5232954194910794</v>
       </c>
       <c r="N3" t="n">
-        <v>144.5768183146925</v>
+        <v>36.6529415620667</v>
       </c>
       <c r="O3" t="n">
-        <v>285.9119908579089</v>
+        <v>73.61752515029252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_7</t>
+          <t>model_1_13_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999844419523263</v>
+        <v>0.9361775065030923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8292850214593195</v>
+        <v>0.7410221453153529</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8214523950468885</v>
+        <v>0.6602105270880499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999620511656843</v>
+        <v>0.9566449671520785</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006476078879237647</v>
+        <v>0.2656628330393105</v>
       </c>
       <c r="G4" t="n">
-        <v>1.141571847571727</v>
+        <v>1.731786106759606</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6386544301323109</v>
+        <v>1.215407242480393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001409268483665725</v>
+        <v>0.2730983017249142</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05781569935896227</v>
+        <v>1.420978311684843</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02544814114869227</v>
+        <v>0.5154249053347253</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00995715051117</v>
+        <v>0.9130927748127214</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02584892393297588</v>
+        <v>0.5235423323578688</v>
       </c>
       <c r="N4" t="n">
-        <v>144.6844503119889</v>
+        <v>36.65105463836009</v>
       </c>
       <c r="O4" t="n">
-        <v>286.0196228552053</v>
+        <v>73.61563822658592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_6</t>
+          <t>model_1_13_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999841392239985</v>
+        <v>0.9361328914358755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8289277171892673</v>
+        <v>0.7409210517128488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8208877780903461</v>
+        <v>0.6601155353366146</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996985633355806</v>
+        <v>0.9561954278495539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006602090353872226</v>
+        <v>0.2658485444476813</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143961142870801</v>
+        <v>1.732462120145045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6406740322474909</v>
+        <v>1.215747022467339</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001119415651752217</v>
+        <v>0.2759300011151256</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05997899855728709</v>
+        <v>1.424947010483931</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02569453318095549</v>
+        <v>0.5156050275624563</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010150896640958</v>
+        <v>0.9130320223807666</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02609919639344557</v>
+        <v>0.5237252913306305</v>
       </c>
       <c r="N5" t="n">
-        <v>144.6459081056108</v>
+        <v>36.64965702827087</v>
       </c>
       <c r="O5" t="n">
-        <v>285.9810806488272</v>
+        <v>73.61424061649669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_5</t>
+          <t>model_1_13_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998181767751644</v>
+        <v>0.9359961275189637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8286907783058486</v>
+        <v>0.7406831989788005</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8203356739423239</v>
+        <v>0.6599274428534903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996608515535554</v>
+        <v>0.955144692790316</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007568440274825839</v>
+        <v>0.2664178279029901</v>
       </c>
       <c r="G6" t="n">
-        <v>1.145545554275226</v>
+        <v>1.734052642472837</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6426488767721286</v>
+        <v>1.216419818373246</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001259462182375175</v>
+        <v>0.2825487012150025</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0657677829642859</v>
+        <v>1.434115792206264</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0275107983795924</v>
+        <v>0.5161567861638459</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01163668638948</v>
+        <v>0.9128457906641207</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02794406595336191</v>
+        <v>0.5242857395784356</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3727067321394</v>
+        <v>36.64537884199456</v>
       </c>
       <c r="O6" t="n">
-        <v>285.7078792753558</v>
+        <v>73.60996243022038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_4</t>
+          <t>model_1_13_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998211929257087</v>
+        <v>0.9359892322770987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8286696511513973</v>
+        <v>0.7406729165574893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8202644344742427</v>
+        <v>0.6599204985897942</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996920695940441</v>
+        <v>0.9550990499647605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007442892203199256</v>
+        <v>0.2664465295313343</v>
       </c>
       <c r="G7" t="n">
-        <v>1.145686831654323</v>
+        <v>1.734121401071491</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6429036962187531</v>
+        <v>1.216444657601835</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001143530820118863</v>
+        <v>0.2828362105841883</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06565356864124695</v>
+        <v>1.434511940447724</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02728166454452377</v>
+        <v>0.5161845886224562</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011443652754643</v>
+        <v>0.9128364013986026</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02771132348944076</v>
+        <v>0.5243139798979768</v>
       </c>
       <c r="N7" t="n">
-        <v>144.4061617233614</v>
+        <v>36.6451633903287</v>
       </c>
       <c r="O7" t="n">
-        <v>285.7413342665778</v>
+        <v>73.60974697855451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_3</t>
+          <t>model_1_13_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998068895325084</v>
+        <v>0.9359613892313837</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8283348084279913</v>
+        <v>0.7406328531153556</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8198195491798301</v>
+        <v>0.6598941884010184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997334613297058</v>
+        <v>0.9549201513554012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0008038274763716288</v>
+        <v>0.2665624269524442</v>
       </c>
       <c r="G8" t="n">
-        <v>1.147925926487548</v>
+        <v>1.734389305493514</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6444950251209354</v>
+        <v>1.216538767621533</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009898184081201516</v>
+        <v>0.2839631133492798</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0675965273694121</v>
+        <v>1.436061794818122</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02835185137467444</v>
+        <v>0.5162968399597698</v>
       </c>
       <c r="L8" t="n">
-        <v>1.012359069919462</v>
+        <v>0.9127984874640118</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02879836469237195</v>
+        <v>0.5244279990816429</v>
       </c>
       <c r="N8" t="n">
-        <v>144.2522517868771</v>
+        <v>36.64429363066311</v>
       </c>
       <c r="O8" t="n">
-        <v>285.5874243300935</v>
+        <v>73.60887721888894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_1</t>
+          <t>model_1_13_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998045019350972</v>
+        <v>0.9359544243485441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8279186540429468</v>
+        <v>0.7406231077079193</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8185902156778661</v>
+        <v>0.659887944130977</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997675990832865</v>
+        <v>0.9548763719505045</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008137659143372008</v>
+        <v>0.2665914184632041</v>
       </c>
       <c r="G9" t="n">
-        <v>1.150708752776555</v>
+        <v>1.734454473077915</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6488922797766088</v>
+        <v>1.216561103013408</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008630443949205435</v>
+        <v>0.2842388848189906</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06786701292140052</v>
+        <v>1.436441307721415</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02852658259128143</v>
+        <v>0.5163249155940511</v>
       </c>
       <c r="L9" t="n">
-        <v>1.012511876153781</v>
+        <v>0.9127890033682303</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02897584775097337</v>
+        <v>0.5244565168790989</v>
       </c>
       <c r="N9" t="n">
-        <v>144.2276756156871</v>
+        <v>36.64407612113158</v>
       </c>
       <c r="O9" t="n">
-        <v>285.5628481589035</v>
+        <v>73.6086597093574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_2</t>
+          <t>model_1_13_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998069241848689</v>
+        <v>0.935884174120228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8279136406074902</v>
+        <v>0.7405294828479261</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8185818996796767</v>
+        <v>0.6598339252546648</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997723776467513</v>
+        <v>0.9544578736586445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008036832349955481</v>
+        <v>0.266883836914029</v>
       </c>
       <c r="G10" t="n">
-        <v>1.150742277642538</v>
+        <v>1.735080542947792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6489220256199431</v>
+        <v>1.216754325401782</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008452987144281371</v>
+        <v>0.2868750533390934</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0680117998591059</v>
+        <v>1.440066939034226</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02834930748705421</v>
+        <v>0.5166080108883611</v>
       </c>
       <c r="L10" t="n">
-        <v>1.012356852168388</v>
+        <v>0.9126933434828636</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02879578074106466</v>
+        <v>0.5247440706413028</v>
       </c>
       <c r="N10" t="n">
-        <v>144.2526107054845</v>
+        <v>36.64188356597807</v>
       </c>
       <c r="O10" t="n">
-        <v>285.5877832487009</v>
+        <v>73.60646715420388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_0</t>
+          <t>model_1_13_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997421827560059</v>
+        <v>0.9358771558619817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8257881043133937</v>
+        <v>0.7405219353561117</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8157758494078065</v>
+        <v>0.6598292756756088</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998082935687729</v>
+        <v>0.9544179344812964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001073171161029305</v>
+        <v>0.2669130506013442</v>
       </c>
       <c r="G11" t="n">
-        <v>1.164955748628356</v>
+        <v>1.735131013060308</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6589591047382797</v>
+        <v>1.216770956676467</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007119212922240899</v>
+        <v>0.2871266347770396</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07357947422348315</v>
+        <v>1.440412109430085</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03275929121683351</v>
+        <v>0.5166362846348911</v>
       </c>
       <c r="L11" t="n">
-        <v>1.016500303615622</v>
+        <v>0.9126837867056773</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03327521730622156</v>
+        <v>0.5247727896710772</v>
       </c>
       <c r="N11" t="n">
-        <v>143.6742746234364</v>
+        <v>36.64166465359377</v>
       </c>
       <c r="O11" t="n">
-        <v>285.0094471666529</v>
+        <v>73.60624824181959</v>
       </c>
     </row>
   </sheetData>
